--- a/Sensors table.xlsx
+++ b/Sensors table.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>OIL_TEMP</t>
   </si>
@@ -43,13 +43,16 @@
   <si>
     <t>bar</t>
   </si>
+  <si>
+    <t>Oil_PRESSURE2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -128,9 +131,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -358,11 +361,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-456900784"/>
-        <c:axId val="-456914480"/>
+        <c:axId val="-1575357456"/>
+        <c:axId val="-1610988512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-456900784"/>
+        <c:axId val="-1575357456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -418,12 +421,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-456914480"/>
+        <c:crossAx val="-1610988512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-456914480"/>
+        <c:axId val="-1610988512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -479,7 +482,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-456900784"/>
+        <c:crossAx val="-1575357456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -789,11 +792,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-456858976"/>
-        <c:axId val="-460092384"/>
+        <c:axId val="-1610975152"/>
+        <c:axId val="-1610972672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-456858976"/>
+        <c:axId val="-1610975152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -850,12 +853,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-460092384"/>
+        <c:crossAx val="-1610972672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-460092384"/>
+        <c:axId val="-1610972672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -911,7 +914,360 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-456858976"/>
+        <c:crossAx val="-1610975152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ohm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$23:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$B$23:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>106.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>124.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>140.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>155.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>170.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>184.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1540374960"/>
+        <c:axId val="-1540389424"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1540374960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1540389424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1540389424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1540374960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1040,6 +1396,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1557,6 +1953,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2129,6 +3041,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2403,7 +3345,7 @@
   <dimension ref="A1:E87"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D26"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2671,6 +3613,9 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
       <c r="D21" s="5">
         <v>1.4</v>
       </c>
@@ -2678,7 +3623,13 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D22" s="5">
         <v>1.2</v>
       </c>
@@ -2686,7 +3637,13 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>0</v>
+      </c>
+      <c r="B23" s="2">
+        <v>10</v>
+      </c>
       <c r="D23" s="5">
         <v>1</v>
       </c>
@@ -2695,6 +3652,12 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>1</v>
+      </c>
+      <c r="B24" s="1">
+        <v>31</v>
+      </c>
       <c r="D24" s="5">
         <v>0.8</v>
       </c>
@@ -2703,6 +3666,12 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>2</v>
+      </c>
+      <c r="B25" s="1">
+        <v>52</v>
+      </c>
       <c r="D25" s="5">
         <v>0.6</v>
       </c>
@@ -2711,6 +3680,12 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>3</v>
+      </c>
+      <c r="B26" s="1">
+        <v>71</v>
+      </c>
       <c r="D26" s="5">
         <v>0.4</v>
       </c>
@@ -2719,69 +3694,111 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>4</v>
+      </c>
+      <c r="B27" s="1">
+        <v>88</v>
+      </c>
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1">
+        <v>106</v>
+      </c>
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>6</v>
+      </c>
+      <c r="B29" s="1">
+        <v>124</v>
+      </c>
       <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>7</v>
+      </c>
+      <c r="B30" s="1">
+        <v>140</v>
+      </c>
       <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>8</v>
+      </c>
+      <c r="B31" s="1">
+        <v>155</v>
+      </c>
       <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>9</v>
+      </c>
+      <c r="B32" s="1">
+        <v>170</v>
+      </c>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>10</v>
+      </c>
+      <c r="B33" s="1">
+        <v>184</v>
+      </c>
       <c r="D33" s="4"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D34" s="4"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D35" s="4"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D37" s="4"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D39" s="4"/>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D41" s="4"/>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D42" s="4"/>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D43" s="4"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D44" s="4"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D45" s="4"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D46" s="4"/>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D48" s="4"/>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.2">
@@ -2903,6 +3920,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Sensors table.xlsx
+++ b/Sensors table.xlsx
@@ -1,24 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dteplitsky/ownCloud/Development/Arduino/PreludeExtraGuages/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ice\ownCloud\Development\Arduino\PreludeExtraGuages\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -144,6 +142,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -244,52 +245,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>80.0</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>90.0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>110.0</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>120.0</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>130.0</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>140.0</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>150.0</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>160.0</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>170.0</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -301,52 +302,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>2031.0</c:v>
+                  <c:v>2031</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1286.0</c:v>
+                  <c:v>1286</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>844.0</c:v>
+                  <c:v>844</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>570.0</c:v>
+                  <c:v>570</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>388.0</c:v>
+                  <c:v>388</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>278.0</c:v>
+                  <c:v>278</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>147.0</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>108.0</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>83.0</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>64.0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>49.0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>39.0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -361,11 +362,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1575357456"/>
-        <c:axId val="-1610988512"/>
+        <c:axId val="308604344"/>
+        <c:axId val="308603168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1575357456"/>
+        <c:axId val="308604344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -385,6 +386,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -421,12 +423,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1610988512"/>
+        <c:crossAx val="308603168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1610988512"/>
+        <c:axId val="308603168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -446,6 +448,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -482,7 +485,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1575357456"/>
+        <c:crossAx val="308604344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -627,22 +630,22 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.6</c:v>
+                  <c:v>4.5999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.4</c:v>
+                  <c:v>4.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>4.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>3.8</c:v>
@@ -657,7 +660,7 @@
                   <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2.8</c:v>
@@ -669,10 +672,10 @@
                   <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.2</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1.8</c:v>
@@ -687,7 +690,7 @@
                   <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.8</c:v>
@@ -708,31 +711,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>181.0</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>177.0</c:v>
+                  <c:v>177</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>168.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>162.0</c:v>
+                  <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>160.0</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>153.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>147.0</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>140.0</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>132.0</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>125.2</c:v>
@@ -750,22 +753,22 @@
                   <c:v>99.3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>95.0</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>86.4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>80.0</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>71.3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>67.0</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>51.9</c:v>
@@ -774,7 +777,7 @@
                   <c:v>43.3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>36.8</c:v>
+                  <c:v>36.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>26.1</c:v>
@@ -792,11 +795,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1610975152"/>
-        <c:axId val="-1610972672"/>
+        <c:axId val="308600032"/>
+        <c:axId val="308603560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1610975152"/>
+        <c:axId val="308600032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -853,12 +856,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1610972672"/>
+        <c:crossAx val="308603560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1610972672"/>
+        <c:axId val="308603560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -878,6 +881,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -914,7 +918,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1610975152"/>
+        <c:crossAx val="308600032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1059,37 +1063,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1101,37 +1105,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31.0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>52.0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>71.0</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>88.0</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>106.0</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>124.0</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>140.0</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>155.0</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>170.0</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>184.0</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1146,11 +1150,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1540374960"/>
-        <c:axId val="-1540389424"/>
+        <c:axId val="308601208"/>
+        <c:axId val="308599640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1540374960"/>
+        <c:axId val="308601208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1170,6 +1174,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1206,12 +1211,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1540389424"/>
+        <c:crossAx val="308599640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1540389424"/>
+        <c:axId val="308599640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1231,6 +1236,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1267,7 +1273,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1540374960"/>
+        <c:crossAx val="308601208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3345,12 +3351,12 @@
   <dimension ref="A1:E87"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3358,7 +3364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3372,7 +3378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>20</v>
       </c>
@@ -3386,7 +3392,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>30</v>
       </c>
@@ -3400,7 +3406,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>40</v>
       </c>
@@ -3414,7 +3420,7 @@
         <v>168.2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>50</v>
       </c>
@@ -3428,7 +3434,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>60</v>
       </c>
@@ -3442,7 +3448,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>70</v>
       </c>
@@ -3456,7 +3462,7 @@
         <v>153.1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>80</v>
       </c>
@@ -3470,7 +3476,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>90</v>
       </c>
@@ -3484,7 +3490,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>100</v>
       </c>
@@ -3498,7 +3504,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>110</v>
       </c>
@@ -3512,7 +3518,7 @@
         <v>125.2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>120</v>
       </c>
@@ -3526,7 +3532,7 @@
         <v>118.8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>130</v>
       </c>
@@ -3540,7 +3546,7 @@
         <v>112.2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>140</v>
       </c>
@@ -3554,7 +3560,7 @@
         <v>105.8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>150</v>
       </c>
@@ -3568,7 +3574,7 @@
         <v>99.3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>160</v>
       </c>
@@ -3582,7 +3588,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>170</v>
       </c>
@@ -3596,7 +3602,7 @@
         <v>86.4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D19" s="5">
         <v>1.8</v>
       </c>
@@ -3604,7 +3610,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D20" s="5">
         <v>1.6</v>
       </c>
@@ -3612,7 +3618,7 @@
         <v>71.3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -3623,7 +3629,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>4</v>
       </c>
@@ -3637,7 +3643,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>0</v>
       </c>
@@ -3651,7 +3657,7 @@
         <v>51.9</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1</v>
       </c>
@@ -3665,7 +3671,7 @@
         <v>43.3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2</v>
       </c>
@@ -3679,7 +3685,7 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>3</v>
       </c>
@@ -3693,7 +3699,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>4</v>
       </c>
@@ -3702,7 +3708,7 @@
       </c>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>5</v>
       </c>
@@ -3711,7 +3717,7 @@
       </c>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>6</v>
       </c>
@@ -3720,7 +3726,7 @@
       </c>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>7</v>
       </c>
@@ -3729,7 +3735,7 @@
       </c>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>8</v>
       </c>
@@ -3738,7 +3744,7 @@
       </c>
       <c r="D31" s="4"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>9</v>
       </c>
@@ -3747,7 +3753,7 @@
       </c>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>10</v>
       </c>
@@ -3756,166 +3762,166 @@
       </c>
       <c r="D33" s="4"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D34" s="4"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D35" s="4"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D37" s="4"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D39" s="4"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D41" s="4"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D42" s="4"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D43" s="4"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D44" s="4"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D45" s="4"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D46" s="4"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D48" s="4"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D53" s="4"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D54" s="4"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D55" s="4"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D56" s="4"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D57" s="4"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D58" s="4"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D59" s="4"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D60" s="4"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D61" s="4"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D62" s="4"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D63" s="4"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D64" s="4"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D65" s="4"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D66" s="4"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D67" s="4"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D68" s="4"/>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D69" s="4"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D70" s="4"/>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D71" s="4"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D72" s="4"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D73" s="4"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D74" s="4"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D75" s="4"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D76" s="4"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D77" s="4"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D78" s="4"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D79" s="4"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D80" s="4"/>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D81" s="4"/>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D82" s="4"/>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D83" s="4"/>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D84" s="4"/>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D85" s="4"/>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D86" s="4"/>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D87" s="4"/>
     </row>
   </sheetData>
@@ -3923,4 +3929,23 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <f>900*(1024/130-1)</f>
+        <v>6189.2307692307695</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>